--- a/uploads/Clientes.xlsx
+++ b/uploads/Clientes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cliente" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -93,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -397,27 +401,36 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="nan" customWidth="1"/>
+    <col min="2" max="2" width="nan" customWidth="1"/>
+    <col min="3" max="3" width="nan" style="1" customWidth="1"/>
+    <col min="4" max="4" width="nan" style="1" customWidth="1"/>
+    <col min="5" max="5" width="nan" style="1" customWidth="1"/>
+    <col min="6" max="6" width="nan" style="1" customWidth="1"/>
+    <col min="7" max="7" width="nan" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
